--- a/ToeicWeb/wwwroot/adminn/upload/part 6/ETS 2024 - TEST 1 - PART 6/excel/ETS2024TEST1PART6.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/part 6/ETS 2024 - TEST 1 - PART 6/excel/ETS2024TEST1PART6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA0B2A-09BC-48A6-B0C4-034F9C9205B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA632578-E8A7-45DC-980E-0B6C32FA4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4F5CDD4-0195-426B-939C-8E9F08E6AC4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>Thu_tu_cau</t>
   </si>
@@ -49,16 +49,6 @@
   </si>
   <si>
     <t>Giai_thich</t>
-  </si>
-  <si>
-    <t>Bai_doc</t>
-  </si>
-  <si>
-    <t>Come to the Maxley Heights Center for Horticulture and learn how to create a beautiful,
-eco-friendly garden for your home or business. --131d . We will teach you how to plant a rain garden, which is simply a shallow sunken garden -132- a special soil mix to filter pollutants from rainwater flowing from nearby roads and rooftops. These gardens can be landscaped with native plants and flowers. --133d , rain gardens are always beneficial to the local environment. Among
-other things, improve drainage and protect rivers and streams.
-134.
-To register, visit www.maxley-horticulture.org.</t>
   </si>
   <si>
     <t>Children of all ages will enjoy the new exhibits.</t>
@@ -88,31 +78,7 @@
     <t>used to</t>
   </si>
   <si>
-    <t> by using</t>
-  </si>
-  <si>
     <t>that uses</t>
-  </si>
-  <si>
-    <t>(A) để sử dụng
-(B) đã từng
-(C) bằng cách sử dụng
-(D) sử dụng
-Câu đang đề cập đến chủ ngữ là khu vườn cho nên đáp án D là phù hợp, ở đây có nghĩa là tạo ra một khu vườn mà nó sử dụng một loại đất đặc biệt. Đáp án C không đúng vì xét về nghĩa, không thể tạo ra một khu vườn bằng cách sử dụng một loại đất được trộn với chất bẩn.
-=&gt; Đáp án (D)</t>
-  </si>
-  <si>
-    <t>31 July
-Akwasi Dombo Fourth Avenue GA 105
-Accra, Ghana Dear Mr. Dombo,
-Thank you for your -13d- support in helping me to plan the opening gala for Tokyo's fashion week. The event was a huge success, and I was honored to work with you. I know that our attendees follow your work closely, and they loved the designs you contributed for this event.
-Your designs received a lot of --136d on social media. Shows like this will keep Tokyo on the map
-as a premier fashion centre.
-realize that the multiple delays made the planning no easy
-task. The auction -138- our Young Designers Award program is coming up soon and I look forward to working with you on that as well.
-Sincerely,
-Asahi Ishioka
-Director, Japanese Guild of Fashion Designers</t>
   </si>
   <si>
     <t>Best of all</t>
@@ -263,18 +229,6 @@
 =&gt; Đáp án (A)</t>
   </si>
   <si>
-    <t>From: Patron Services &lt;patronservices@menachinIibrary.org&gt; To: Edgar Hughes &lt;hughese98@vilIachesta.com&gt;
-Subject: Card expiration date approaching Date: December 3
-Dear Mr. Hughes,
-Please be advised that your Mena Chin Library card will expire one month from today.
--139d must be renewed if you intend to keep your membership for the coming year.
--140- . This can be done at the information desk at any branch location.
--141d you decide to close your account, no action is necessary. Failure to complete your renewal by the -142d date will result in the expiration of your library privileges.
-If you have any questions about this notice, or about general library services, you may reply directly to this e-mail.
-Sincerely,
-Patron Services</t>
-  </si>
-  <si>
     <t>To sign up for a card, visit your local library branch.</t>
   </si>
   <si>
@@ -359,16 +313,6 @@
 =&gt; Đáp án (A)</t>
   </si>
   <si>
-    <t>April 7
-Naomi Burwell
-43 Waymire Road
-South Portland, ME 04109 Dear Ms. Burwell,
-I am Omar Ridha, the manager of Droplight Studio. -143- . We offer a full range of photography services for real estate professionals like you. We take pride in composing interior and exterior shots that make a property look its best. Droplight Studio spares no effort in --144- superior digital images. -14 , our professional-grade equipment, lighting, and staging techniques allow us to highlight the best features of a property. And once the photo shoot is over, every image 146d expert editing. All these services come standard in every package.
-Please visit our Web site to view our work as well as our pricing and scheduling information. We are happy to work with you to customize orders.
-Sincerely,
-Omar Ridha, Droplight Studio</t>
-  </si>
-  <si>
     <t>researching</t>
   </si>
   <si>
@@ -442,6 +386,53 @@
 (D) sử dụng
 Câu đang đề cập đến chủ ngữ là khu vườn cho nên đáp án D là phù hợp, ở đây có nghĩa là tạo ra một khu vườn mà nó sử dụng một loại đất đặc biệt. Đáp án C không đúng vì xét về nghĩa, không thể tạo ra một khu vườn bằng cách sử dụng một loại đất được trộn với chất bẩn.
 =&gt; Đáp án (D)</t>
+  </si>
+  <si>
+    <t>Image_bai_doc</t>
+  </si>
+  <si>
+    <t>Giai_thich_bai_doc</t>
+  </si>
+  <si>
+    <t>131-134</t>
+  </si>
+  <si>
+    <t>135-138</t>
+  </si>
+  <si>
+    <t>139-142</t>
+  </si>
+  <si>
+    <t>143-146</t>
+  </si>
+  <si>
+    <t>Dịch nghĩa:
+Bài học Guitar Estella: Chơi với điều tuyệt vời nhất
+Dù bạn chơi guitar acoustic (131) điện thì học với giáo viên dạy tại Guitar Estella là cách tốt nhất để nâng cao khả năng của bạn. Với nhiều năm kinh nghiệm trong việc tạo ra các kỹ thuật chơi, (132) người hướng dẫn có trình độ có thể điều chỉnh các bài học để tập trung vào các kỹ năng bạn muốn tinh chỉnh. Nhận kế hoạch học tập tùy chỉnh để đặt mục tiêu và vượt qua các thử thách khiến nhiều người chơi nản lòng. (133) . Giáo viên dạy tại Guitar Estella sẽ giúp bạn tăng cường sự tự tin.
+Tại Estella Guitar, chúng tôi tin rằng chơi nhạc là một cách thể hiện bản thân. (134), chúng tôi sẽ giúp bạn vượt xa những hợp âm và đoạn riff quen thuộc để phát triển bản sắc riêng của bạn với tư cách là một nhạc sĩ. Sẵn sàng để bắt đầu? Hãy truy cập www.estellaguitar.com/lessons để tìm được người hướng dẫn phù hợp với bạn!</t>
+  </si>
+  <si>
+    <t>Dịch nghĩa:
+Giao hàng tận nhà mất khoảng một tuần sau khi đơn hàng được vận chuyển từ kho của chúng tôi. Thời gian thực tế có thể thay đổi tùy theo (135) của bạn và khả năng chấp nhận món hàng của bạn. Nội thất Vernico sẽ làm việc với nhà vận chuyển (136) một cuộc hẹn thuận tiện cho bạn. Giờ thông thường là từ Thứ Hai đến Thứ Sáu, từ 8 giờ sáng đến 5 giờ chiều, (137) các cuộc hẹn buổi tối thường có thể được sắp xếp. Khi đến nhà bạn, đồ sẽ được đặt ở vị trí mà bạn mong muốn. (138). Lắp ráp cũng được bao gồm.</t>
+  </si>
+  <si>
+    <t>Dịch nghĩa:
+Kính gửi: Thao Pham &lt;thaopham@amail.com&gt;
+Từ: Leena Montoya &lt;Imontoya@academemedia.com&gt;
+Ngày: 17 tháng 4
+Chủ đề: Đăng ký
+Thưa anh Pham,
+(139) . Đăng ký Tạp chí Đổi mới Y tế hàng quý của bạn đã bị hủy. (140) ngày 1 tháng 5, bạn sẽ không nhận được bản in nữa.
+Chúng tôi hy vọng rằng bạn sẽ xem xét một lần nữa trở thành một (141) của ấn phẩm của chúng tôi. Academe Media xuất bản nhiều tạp chí khoa học chất lượng cao ngoài Tạp chí Đổi mới Y tế hàng quý. Nếu bạn muốn đăng ký một gói trước ngày 31 tháng 5, chúng tôi có thể cung cấp cho bạn gói đăng ký hai năm với mức giá hàng năm. Truy cập www.academemedia.com/shop và nhập mã NHÂN ĐÔI (142) thanh toán.
+Nếu bạn có bất kỳ phản hồi nào có thể giúp chúng tôi cải thiện sản phẩm hoặc dịch vụ của mình, vui lòng gọi trực tiếp cho tôi theo số 212-555-0122.
+Trân trọng,
+Leena Montoya
+Giám đốc Dịch vụ Khách hàng, Academy Media</t>
+  </si>
+  <si>
+    <t>Dịch nghĩa:
+Trong nhà bếp thương mại, tất cả các tủ lạnh đều phải có nhiệt kế (143) từ 0°F (-18°C) đến 220°F (104°C). Để ngăn chặn sự phát triển của vi khuẩn, thực phẩm đông lạnh phải được bảo quản ở nhiệt độ 41°F (5°C) hoặc thấp hơn. Bếp trưởng có trách nhiệm kiểm tra các nhiệt kế này suốt cả ngày để đảm bảo nhà bếp luôn tuân thủ quy định.
+Cũng quan trọng cần xem xét là (144). Nhiệt kế phải luôn được đặt ở nơi ấm nhất trong tủ lạnh. (145). Vị trí này cũng thích hợp vì nó cho phép nhiệt kế dễ dàng (146) ngay khi cửa mở.</t>
   </si>
 </sst>
 </file>
@@ -819,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F47545-F73D-4F41-96B2-FA49E1BBA759}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -834,10 +825,13 @@
     <col min="5" max="5" width="34.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="52.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="52.296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,85 +857,96 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="331.2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -955,16 +960,19 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -978,16 +986,22 @@
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1002,18 +1016,18 @@
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1028,15 +1042,18 @@
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
@@ -1056,10 +1073,13 @@
       <c r="H9" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
@@ -1074,15 +1094,21 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>51</v>
@@ -1097,177 +1123,172 @@
         <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>142</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>141</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>143</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>142</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>144</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>143</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>144</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>146</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>145</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>146</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>92</v>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ToeicWeb/wwwroot/adminn/upload/part 6/ETS 2024 - TEST 1 - PART 6/excel/ETS2024TEST1PART6.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/part 6/ETS 2024 - TEST 1 - PART 6/excel/ETS2024TEST1PART6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA632578-E8A7-45DC-980E-0B6C32FA4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189F95A-3A15-47E0-8C59-AEB371649A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4F5CDD4-0195-426B-939C-8E9F08E6AC4F}"/>
   </bookViews>
@@ -812,21 +812,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F47545-F73D-4F41-96B2-FA49E1BBA759}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="40.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="52.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="1"/>
-    <col min="9" max="9" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
     <col min="10" max="10" width="16.796875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -839,25 +839,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>89</v>
@@ -867,26 +867,26 @@
       <c r="A2" s="1">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>94</v>
@@ -896,104 +896,104 @@
       <c r="A3" s="1">
         <v>132</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>133</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>134</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>135</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>95</v>
@@ -1003,104 +1003,104 @@
       <c r="A7" s="1">
         <v>136</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>137</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>138</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>139</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>96</v>
@@ -1110,104 +1110,104 @@
       <c r="A11" s="1">
         <v>140</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>141</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>142</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>143</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>97</v>
@@ -1217,78 +1217,78 @@
       <c r="A15" s="1">
         <v>144</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>145</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>146</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
